--- a/docs/電腦繪圖國小中年級乙組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖國小中年級乙組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖國小中年級乙組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="213">
   <si>
     <t>序</t>
   </si>
@@ -48,661 +48,616 @@
     <t>電腦繪圖國小中年級乙組靜態類</t>
   </si>
   <si>
-    <t>大甲區日南國小</t>
-  </si>
-  <si>
-    <t>葉孝澤</t>
-  </si>
-  <si>
-    <t>吳姿慧</t>
+    <t>大安區大安國小</t>
+  </si>
+  <si>
+    <t>莊德威</t>
+  </si>
+  <si>
+    <t>吳慧菁</t>
   </si>
   <si>
     <t>Windows 小畫家</t>
   </si>
   <si>
-    <t>bj7wh2</t>
-  </si>
-  <si>
-    <t>hpe60m4</t>
-  </si>
-  <si>
-    <t>梁芝瑄</t>
-  </si>
-  <si>
-    <t>gw16et7</t>
-  </si>
-  <si>
-    <t>bjk99y9</t>
-  </si>
-  <si>
-    <t>白家銤</t>
-  </si>
-  <si>
-    <t>李仲岳</t>
-  </si>
-  <si>
-    <t>x26b8</t>
-  </si>
-  <si>
-    <t>fr13yg5</t>
-  </si>
-  <si>
-    <t>大安區大安國小</t>
-  </si>
-  <si>
-    <t>莊德威</t>
-  </si>
-  <si>
-    <t>吳慧菁</t>
-  </si>
-  <si>
-    <t>bjk97v5</t>
-  </si>
-  <si>
-    <t>cdx17fr8</t>
-  </si>
-  <si>
-    <t>莊詠渝</t>
-  </si>
-  <si>
-    <t>dx4p4</t>
-  </si>
-  <si>
-    <t>dx72m2</t>
+    <t>frs74e4</t>
+  </si>
+  <si>
+    <t>x53gw3</t>
+  </si>
+  <si>
+    <t>許祐程</t>
+  </si>
+  <si>
+    <t>n5jk9</t>
+  </si>
+  <si>
+    <t>b74w6</t>
+  </si>
+  <si>
+    <t>陳芊儒</t>
+  </si>
+  <si>
+    <t>kf90pe9</t>
+  </si>
+  <si>
+    <t>frs25y6</t>
   </si>
   <si>
     <t>大安區海墘國小</t>
   </si>
   <si>
-    <t>黃詩芸</t>
-  </si>
-  <si>
-    <t>周祐民</t>
-  </si>
-  <si>
-    <t>bj49sm4</t>
-  </si>
-  <si>
-    <t>bj76wh8</t>
+    <t>周裕涵</t>
+  </si>
+  <si>
+    <t>李思賢</t>
+  </si>
+  <si>
+    <t>bj93wh5</t>
+  </si>
+  <si>
+    <t>p10y5</t>
+  </si>
+  <si>
+    <t>鍾采芹</t>
+  </si>
+  <si>
+    <t>frs99bj6</t>
+  </si>
+  <si>
+    <t>dx71et8</t>
+  </si>
+  <si>
+    <t>王姿霓</t>
+  </si>
+  <si>
+    <t>et94pe4</t>
+  </si>
+  <si>
+    <t>dx22s2</t>
   </si>
   <si>
     <t>大肚區永順國小</t>
   </si>
   <si>
-    <t>謝苡宣</t>
+    <t>王宜薰</t>
   </si>
   <si>
     <t>許嘉芬</t>
   </si>
   <si>
-    <t>Gimp 2.8</t>
-  </si>
-  <si>
-    <t>hpe24kf7</t>
-  </si>
-  <si>
-    <t>kfr60j6</t>
-  </si>
-  <si>
-    <t>大里區大里國小</t>
-  </si>
-  <si>
-    <t>謝欣穎</t>
-  </si>
-  <si>
-    <t>石佳宜</t>
-  </si>
-  <si>
-    <t>rsm72tv4</t>
-  </si>
-  <si>
-    <t>t39kf8</t>
-  </si>
-  <si>
-    <t>大里區美群國小</t>
-  </si>
-  <si>
-    <t>賴鈴蓁</t>
-  </si>
-  <si>
-    <t>黃紹維</t>
-  </si>
-  <si>
-    <t>et95d7</t>
-  </si>
-  <si>
-    <t>t60e8</t>
-  </si>
-  <si>
-    <t>大雅區文雅國小</t>
-  </si>
-  <si>
-    <t>陳子晴</t>
-  </si>
-  <si>
-    <t>張啟祥</t>
-  </si>
-  <si>
-    <t>ygw72my7</t>
-  </si>
-  <si>
-    <t>my99v3</t>
-  </si>
-  <si>
-    <t>彭紹祐</t>
-  </si>
-  <si>
-    <t>tv7an6</t>
-  </si>
-  <si>
-    <t>w67pe2</t>
-  </si>
-  <si>
-    <t>廖梓蓉</t>
-  </si>
-  <si>
-    <t>w5b9</t>
-  </si>
-  <si>
-    <t>kf46fr3</t>
+    <t>Gimp 2.10.8</t>
+  </si>
+  <si>
+    <t>my64h9</t>
+  </si>
+  <si>
+    <t>k7gw2</t>
+  </si>
+  <si>
+    <t>大雅區汝鎏國小</t>
+  </si>
+  <si>
+    <t>范懿雁</t>
+  </si>
+  <si>
+    <t>劉政育</t>
+  </si>
+  <si>
+    <t>kf16pe1</t>
+  </si>
+  <si>
+    <t>d85p7</t>
   </si>
   <si>
     <t>大雅區陽明國小</t>
   </si>
   <si>
-    <t>吳曼丞</t>
+    <t>黃允論</t>
   </si>
   <si>
     <t>巫俐敏</t>
   </si>
   <si>
-    <t>rsm67cd3</t>
-  </si>
-  <si>
-    <t>xb46h2</t>
-  </si>
-  <si>
-    <t>北屯區明道普霖斯頓小學</t>
-  </si>
-  <si>
-    <t>蔡冠瑾</t>
-  </si>
-  <si>
-    <t>劉禎</t>
-  </si>
-  <si>
-    <t>w25hp9</t>
-  </si>
-  <si>
-    <t>hp2f7</t>
-  </si>
-  <si>
-    <t>詹詠涵</t>
-  </si>
-  <si>
-    <t>g69j3</t>
-  </si>
-  <si>
-    <t>wh71a8</t>
-  </si>
-  <si>
-    <t>林品希</t>
-  </si>
-  <si>
-    <t>a44kf8</t>
-  </si>
-  <si>
-    <t>c80d4</t>
-  </si>
-  <si>
-    <t>彭育展</t>
-  </si>
-  <si>
-    <t>v28s7</t>
-  </si>
-  <si>
-    <t>b81h2</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>施品岑</t>
-  </si>
-  <si>
-    <t>蔡慧珍</t>
-  </si>
-  <si>
-    <t>Inkscape 0.92.2</t>
-  </si>
-  <si>
-    <t>hpe71bj4</t>
-  </si>
-  <si>
-    <t>hp37rs3</t>
-  </si>
-  <si>
-    <t>孟誌毅</t>
-  </si>
-  <si>
-    <t>bj35my2</t>
-  </si>
-  <si>
-    <t>wh33an1</t>
-  </si>
-  <si>
-    <t>北區篤行國小</t>
-  </si>
-  <si>
-    <t>袁媛</t>
-  </si>
-  <si>
-    <t>楊晴惠</t>
-  </si>
-  <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>gw69v2</t>
-  </si>
-  <si>
-    <t>c13my5</t>
-  </si>
-  <si>
-    <t>外埔區外埔國小</t>
-  </si>
-  <si>
-    <t>邵湘妍</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>wh11jk8</t>
-  </si>
-  <si>
-    <t>m41yg2</t>
-  </si>
-  <si>
-    <t>劉翎唯</t>
-  </si>
-  <si>
-    <t>陳文鴻</t>
-  </si>
-  <si>
-    <t>xb4x5</t>
-  </si>
-  <si>
-    <t>m87my7</t>
-  </si>
-  <si>
-    <t>劉邦唯</t>
-  </si>
-  <si>
-    <t>dx49r5</t>
-  </si>
-  <si>
-    <t>kfr39xb3</t>
-  </si>
-  <si>
-    <t>丁湘晏</t>
-  </si>
-  <si>
-    <t>bj84tv8</t>
-  </si>
-  <si>
-    <t>myg34p6</t>
+    <t>gwh25gw8</t>
+  </si>
+  <si>
+    <t>etv54gw2</t>
+  </si>
+  <si>
+    <t>太平區坪林國小</t>
+  </si>
+  <si>
+    <t>朱雅暄</t>
+  </si>
+  <si>
+    <t>陳永陸</t>
+  </si>
+  <si>
+    <t>rs14m1</t>
+  </si>
+  <si>
+    <t>myg66a7</t>
+  </si>
+  <si>
+    <t>石岡區石岡國小</t>
+  </si>
+  <si>
+    <t>郭欣婷</t>
+  </si>
+  <si>
+    <t>吳詩琳</t>
+  </si>
+  <si>
+    <t>fr45m7</t>
+  </si>
+  <si>
+    <t>bj6h1</t>
+  </si>
+  <si>
+    <t>后里區七星國小</t>
+  </si>
+  <si>
+    <t>黃亞筑</t>
+  </si>
+  <si>
+    <t>王女衣人</t>
+  </si>
+  <si>
+    <t>Windows 小畫家3D</t>
+  </si>
+  <si>
+    <t>nc50gw6</t>
+  </si>
+  <si>
+    <t>fr65sm5</t>
   </si>
   <si>
     <t>后里區月眉國小</t>
   </si>
   <si>
-    <t>陳予恩</t>
+    <t>洪秉州</t>
   </si>
   <si>
     <t>趙姿婷</t>
   </si>
   <si>
-    <t>frs74wh7</t>
-  </si>
-  <si>
-    <t>v23kf8</t>
-  </si>
-  <si>
-    <t>后里區后里國小</t>
-  </si>
-  <si>
-    <t>蔡欣惠</t>
-  </si>
-  <si>
-    <t>余鴻斌</t>
-  </si>
-  <si>
-    <t>y34bj4</t>
-  </si>
-  <si>
-    <t>m59yg1</t>
-  </si>
-  <si>
-    <t>后里區育英國小</t>
-  </si>
-  <si>
-    <t>王韻涵</t>
-  </si>
-  <si>
-    <t>林建良</t>
-  </si>
-  <si>
-    <t>c83hp2</t>
-  </si>
-  <si>
-    <t>s4bj1</t>
-  </si>
-  <si>
-    <t>西屯區泰安國小</t>
-  </si>
-  <si>
-    <t>廖雅晨</t>
-  </si>
-  <si>
-    <t>吳家瑋</t>
-  </si>
-  <si>
-    <t>smy18s8</t>
-  </si>
-  <si>
-    <t>tv62rs7</t>
+    <t>frs70my1</t>
+  </si>
+  <si>
+    <t>pe63b4</t>
+  </si>
+  <si>
+    <t>林宥榆</t>
+  </si>
+  <si>
+    <t>dxb37b9</t>
+  </si>
+  <si>
+    <t>fr75c8</t>
+  </si>
+  <si>
+    <t>洪筠琇</t>
+  </si>
+  <si>
+    <t>b67dx3</t>
+  </si>
+  <si>
+    <t>yg95yg2</t>
+  </si>
+  <si>
+    <t>許玉函</t>
+  </si>
+  <si>
+    <t>hpe87fr9</t>
+  </si>
+  <si>
+    <t>gw28bj8</t>
+  </si>
+  <si>
+    <t>西屯區大仁國小</t>
+  </si>
+  <si>
+    <t>蔡昕霓</t>
+  </si>
+  <si>
+    <t>莊曼筠</t>
+  </si>
+  <si>
+    <t>x82rs6</t>
+  </si>
+  <si>
+    <t>y86t8</t>
+  </si>
+  <si>
+    <t>洪米其</t>
+  </si>
+  <si>
+    <t>劉定麗</t>
+  </si>
+  <si>
+    <t>frs68h5</t>
+  </si>
+  <si>
+    <t>tv43v4</t>
+  </si>
+  <si>
+    <t>卓品蓁</t>
+  </si>
+  <si>
+    <t>曹智敏</t>
+  </si>
+  <si>
+    <t>gw89pe4</t>
+  </si>
+  <si>
+    <t>bj79jk6</t>
+  </si>
+  <si>
+    <t>西屯區東海國小</t>
+  </si>
+  <si>
+    <t>鄭鈺宸</t>
+  </si>
+  <si>
+    <t>張凱棠</t>
+  </si>
+  <si>
+    <t>bj45w9</t>
+  </si>
+  <si>
+    <t>jk79t2</t>
+  </si>
+  <si>
+    <t>西屯區重慶國小</t>
+  </si>
+  <si>
+    <t>吳羽瞳</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>w35j5</t>
+  </si>
+  <si>
+    <t>c37fr6</t>
   </si>
   <si>
     <t>西區忠信國小</t>
   </si>
   <si>
-    <t>王思雅</t>
+    <t>鄭彥箖</t>
   </si>
   <si>
     <t>黃偵惠</t>
   </si>
   <si>
-    <t>et4jk6</t>
-  </si>
-  <si>
-    <t>rsm53x1</t>
-  </si>
-  <si>
-    <t>楊喬安</t>
-  </si>
-  <si>
-    <t>施馨斐</t>
-  </si>
-  <si>
-    <t>nc6d2</t>
-  </si>
-  <si>
-    <t>j81w5</t>
+    <t>nc36b1</t>
+  </si>
+  <si>
+    <t>myg87dx5</t>
+  </si>
+  <si>
+    <t>白蕎恩</t>
+  </si>
+  <si>
+    <t>myg94nc5</t>
+  </si>
+  <si>
+    <t>d79nc8</t>
+  </si>
+  <si>
+    <t>林柔稦</t>
+  </si>
+  <si>
+    <t>kfr60b7</t>
+  </si>
+  <si>
+    <t>etv53s3</t>
+  </si>
+  <si>
+    <t>沙鹿區公明國小</t>
+  </si>
+  <si>
+    <t>宋昀庭</t>
+  </si>
+  <si>
+    <t>林麗華</t>
+  </si>
+  <si>
+    <t>a23cd6</t>
+  </si>
+  <si>
+    <t>rsm49my5</t>
+  </si>
+  <si>
+    <t>陳慧宜</t>
+  </si>
+  <si>
+    <t>xbj90dx4</t>
+  </si>
+  <si>
+    <t>nc52b3</t>
+  </si>
+  <si>
+    <t>鄭予晴</t>
+  </si>
+  <si>
+    <t>林巧玲</t>
+  </si>
+  <si>
+    <t>n93my2</t>
+  </si>
+  <si>
+    <t>ygw46fr4</t>
   </si>
   <si>
     <t>沙鹿區文光國小</t>
   </si>
   <si>
-    <t>蔡伊彤</t>
-  </si>
-  <si>
-    <t>卓錫斌</t>
-  </si>
-  <si>
-    <t>d35gw1</t>
-  </si>
-  <si>
-    <t>f61nc6</t>
-  </si>
-  <si>
-    <t>徐以丞</t>
-  </si>
-  <si>
-    <t>yg20a7</t>
-  </si>
-  <si>
-    <t>an43cd3</t>
+    <t>李玥頻</t>
+  </si>
+  <si>
+    <t>卓宛俞</t>
+  </si>
+  <si>
+    <t>k1x7</t>
+  </si>
+  <si>
+    <t>bjk3kf8</t>
+  </si>
+  <si>
+    <t>汪筠芸</t>
+  </si>
+  <si>
+    <t>bjk66bj8</t>
+  </si>
+  <si>
+    <t>dx87sm7</t>
   </si>
   <si>
     <t>沙鹿區鹿峰國小</t>
   </si>
   <si>
-    <t>劉芷妍</t>
+    <t>李稚卉</t>
   </si>
   <si>
     <t>劉景銘</t>
   </si>
   <si>
-    <t>bj7y2</t>
-  </si>
-  <si>
-    <t>kf80gw1</t>
+    <t>cd13d6</t>
+  </si>
+  <si>
+    <t>kfr6b3</t>
+  </si>
+  <si>
+    <t>吳其和</t>
+  </si>
+  <si>
+    <t>r21j3</t>
+  </si>
+  <si>
+    <t>xb53nc2</t>
   </si>
   <si>
     <t>黃秉橋</t>
   </si>
   <si>
-    <t>ygw81t2</t>
-  </si>
-  <si>
-    <t>g13c1</t>
-  </si>
-  <si>
-    <t>南屯區鎮平國小</t>
-  </si>
-  <si>
-    <t>劉宸寧</t>
-  </si>
-  <si>
-    <t>謝忠興</t>
-  </si>
-  <si>
-    <t>rs24s3</t>
-  </si>
-  <si>
-    <t>f76gw1</t>
-  </si>
-  <si>
-    <t>李奕諄</t>
-  </si>
-  <si>
-    <t>凃添旺</t>
-  </si>
-  <si>
-    <t>hp68dx5</t>
-  </si>
-  <si>
-    <t>gwh44g6</t>
+    <t>y54w5</t>
+  </si>
+  <si>
+    <t>sm8nc3</t>
+  </si>
+  <si>
+    <t>李冠君</t>
+  </si>
+  <si>
+    <t>nc14fr2</t>
+  </si>
+  <si>
+    <t>hp38g7</t>
+  </si>
+  <si>
+    <t>東區進德國小</t>
+  </si>
+  <si>
+    <t>曾宣瑾</t>
+  </si>
+  <si>
+    <t>王添進</t>
+  </si>
+  <si>
+    <t>kfr4cd9</t>
+  </si>
+  <si>
+    <t>g41kf4</t>
   </si>
   <si>
     <t>烏日區喀哩國小</t>
   </si>
   <si>
-    <t>陳朝森</t>
+    <t>葉家瑜</t>
   </si>
   <si>
     <t>張美娟</t>
   </si>
   <si>
-    <t>tv18p3</t>
-  </si>
-  <si>
-    <t>cd79m7</t>
-  </si>
-  <si>
-    <t>神岡區神岡國小</t>
-  </si>
-  <si>
-    <t>陳資翰</t>
-  </si>
-  <si>
-    <t>林雅茵</t>
-  </si>
-  <si>
-    <t>hp54t9</t>
-  </si>
-  <si>
-    <t>w31r1</t>
-  </si>
-  <si>
-    <t>杜艾佳</t>
-  </si>
-  <si>
-    <t>my96p4</t>
-  </si>
-  <si>
-    <t>dx35m8</t>
+    <t>smy32sm8</t>
+  </si>
+  <si>
+    <t>myg1nc2</t>
+  </si>
+  <si>
+    <t>游沛蓉</t>
+  </si>
+  <si>
+    <t>pet38f9</t>
+  </si>
+  <si>
+    <t>v76r8</t>
+  </si>
+  <si>
+    <t>魏召侑</t>
+  </si>
+  <si>
+    <t>n36kf7</t>
+  </si>
+  <si>
+    <t>b14yg3</t>
+  </si>
+  <si>
+    <t>游思郁</t>
+  </si>
+  <si>
+    <t>hp89b8</t>
+  </si>
+  <si>
+    <t>r76n6</t>
+  </si>
+  <si>
+    <t>神岡區岸裡國小</t>
+  </si>
+  <si>
+    <t>林宥妍</t>
+  </si>
+  <si>
+    <t>楊濬丞</t>
+  </si>
+  <si>
+    <t>v14w3</t>
+  </si>
+  <si>
+    <t>et14gw7</t>
+  </si>
+  <si>
+    <t>神岡區豐洲國小</t>
+  </si>
+  <si>
+    <t>蔡汶佳</t>
+  </si>
+  <si>
+    <t>莊雅景</t>
+  </si>
+  <si>
+    <t>tv91cd3</t>
+  </si>
+  <si>
+    <t>bj39my3</t>
+  </si>
+  <si>
+    <t>王柏承</t>
+  </si>
+  <si>
+    <t>bj30x7</t>
+  </si>
+  <si>
+    <t>wh50j4</t>
   </si>
   <si>
     <t>清水區三田國小</t>
   </si>
   <si>
-    <t>楊紘穎</t>
+    <t>紀昀妡</t>
   </si>
   <si>
     <t>林堯慧</t>
   </si>
   <si>
-    <t>yg68et4</t>
-  </si>
-  <si>
-    <t>xb57rs5</t>
-  </si>
-  <si>
-    <t>周采萱</t>
-  </si>
-  <si>
-    <t>rsm95nc8</t>
-  </si>
-  <si>
-    <t>my51e4</t>
-  </si>
-  <si>
-    <t>清水區西寧國小</t>
-  </si>
-  <si>
-    <t>余安喬</t>
-  </si>
-  <si>
-    <t>丁浩展</t>
-  </si>
-  <si>
-    <t>xb38y5</t>
-  </si>
-  <si>
-    <t>h44sm7</t>
-  </si>
-  <si>
-    <t>清水區建國國小</t>
-  </si>
-  <si>
-    <t>劉羿廷</t>
-  </si>
-  <si>
-    <t>楊舜仁</t>
-  </si>
-  <si>
-    <t>bjk27m1</t>
-  </si>
-  <si>
-    <t>sm50k7</t>
+    <t>fr27v2</t>
+  </si>
+  <si>
+    <t>rs55tv3</t>
+  </si>
+  <si>
+    <t>劉佳俐</t>
+  </si>
+  <si>
+    <t>anc74y2</t>
+  </si>
+  <si>
+    <t>kf40rs6</t>
+  </si>
+  <si>
+    <t>廖苡涵</t>
+  </si>
+  <si>
+    <t>dx80p8</t>
+  </si>
+  <si>
+    <t>x52h5</t>
+  </si>
+  <si>
+    <t>清水區甲南國小</t>
+  </si>
+  <si>
+    <t>洪昕佑</t>
+  </si>
+  <si>
+    <t>賴淑芬</t>
+  </si>
+  <si>
+    <t>v17kf5</t>
+  </si>
+  <si>
+    <t>myg12pe3</t>
   </si>
   <si>
     <t>龍井區龍山國小</t>
   </si>
   <si>
-    <t>陳孜詠</t>
+    <t>楊景翔</t>
   </si>
   <si>
     <t>陳韻如</t>
   </si>
   <si>
-    <t>e45j1</t>
-  </si>
-  <si>
-    <t>an3p2</t>
-  </si>
-  <si>
-    <t>龍井區龍井國小</t>
-  </si>
-  <si>
-    <t>李名琇</t>
-  </si>
-  <si>
-    <t>趙子如</t>
-  </si>
-  <si>
-    <t>hp26pe3</t>
-  </si>
-  <si>
-    <t>wh19e2</t>
-  </si>
-  <si>
-    <t>龍井區龍津國小</t>
-  </si>
-  <si>
-    <t>陳語彤</t>
-  </si>
-  <si>
-    <t>楊惟程</t>
-  </si>
-  <si>
-    <t>et72et2</t>
-  </si>
-  <si>
-    <t>sm81k8</t>
-  </si>
-  <si>
-    <t>楊欣倪</t>
-  </si>
-  <si>
-    <t>rs9hp2</t>
-  </si>
-  <si>
-    <t>wh57e8</t>
-  </si>
-  <si>
-    <t>紀沛葳</t>
-  </si>
-  <si>
-    <t>陳淑玲</t>
-  </si>
-  <si>
-    <t>whp53et1</t>
-  </si>
-  <si>
-    <t>pe23s7</t>
-  </si>
-  <si>
-    <t>豐原區合作國小</t>
-  </si>
-  <si>
-    <t>張維恒</t>
-  </si>
-  <si>
-    <t>陳宏祐</t>
-  </si>
-  <si>
-    <t>tv16p2</t>
-  </si>
-  <si>
-    <t>pe32n7</t>
+    <t>myg89t8</t>
+  </si>
+  <si>
+    <t>yg46cd8</t>
+  </si>
+  <si>
+    <t>陳品睿</t>
+  </si>
+  <si>
+    <t>an48d1</t>
+  </si>
+  <si>
+    <t>my56cd6</t>
   </si>
   <si>
     <t>豐原區翁子國小</t>
   </si>
   <si>
-    <t>陳仙鳳</t>
+    <t>邱唯雅</t>
   </si>
   <si>
     <t>林惠敏</t>
   </si>
   <si>
-    <t>tv23wh8</t>
-  </si>
-  <si>
-    <t>g2f4</t>
+    <t>et93h3</t>
+  </si>
+  <si>
+    <t>et94y7</t>
+  </si>
+  <si>
+    <t>陳盈安</t>
+  </si>
+  <si>
+    <t>gw42f3</t>
+  </si>
+  <si>
+    <t>sm82my4</t>
+  </si>
+  <si>
+    <t>李孟恩</t>
+  </si>
+  <si>
+    <t>hp83cd2</t>
+  </si>
+  <si>
+    <t>d43yg3</t>
   </si>
 </sst>
 </file>
@@ -1704,12 +1659,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1804,16 +1758,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1824,22 +1778,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1850,22 +1804,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1876,22 +1830,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1902,22 +1856,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1928,22 +1882,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1954,22 +1908,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1980,22 +1934,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2006,22 +1960,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2032,22 +1986,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2058,22 +2012,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2084,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>12</v>
@@ -2110,13 +2064,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
@@ -2136,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
@@ -2162,22 +2116,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2188,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>85</v>
@@ -2214,22 +2168,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2240,16 +2194,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>94</v>
@@ -2275,7 +2229,7 @@
         <v>98</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>99</v>
@@ -2292,22 +2246,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2318,22 +2272,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2344,22 +2298,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2370,22 +2324,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2396,22 +2350,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2422,22 +2376,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2448,22 +2402,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2474,22 +2428,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2500,22 +2454,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2526,22 +2480,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2552,22 +2506,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="E33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2578,22 +2532,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2604,22 +2558,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2630,22 +2584,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2656,22 +2610,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="E37" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2682,22 +2636,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2708,22 +2662,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2734,22 +2688,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2760,22 +2714,22 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2786,22 +2740,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2812,22 +2766,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2838,22 +2792,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2864,22 +2818,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2890,22 +2844,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2916,22 +2870,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2942,22 +2896,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2968,22 +2922,22 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2994,22 +2948,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -3020,22 +2974,22 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
